--- a/biology/Botanique/Allium_chamaemoly/Allium_chamaemoly.xlsx
+++ b/biology/Botanique/Allium_chamaemoly/Allium_chamaemoly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ail petit Moly, Petit ail doré
-Allium chamaemoly, appelé Ail petit Moly ou Petit ail doré[1], est une espèce de plante bulbeuse du genre Allium, appartenant à la famille des amaryllidacées. On le rencontre sur le pourtour méditerranéen et dans les îles Baléares jusqu'à 400 mètres d'altitude[2].
-C'est une plante assez rare et elle est protégée sur l'ensemble du territoire français métropolitain[3].
+Allium chamaemoly, appelé Ail petit Moly ou Petit ail doré, est une espèce de plante bulbeuse du genre Allium, appartenant à la famille des amaryllidacées. On le rencontre sur le pourtour méditerranéen et dans les îles Baléares jusqu'à 400 mètres d'altitude.
+C'est une plante assez rare et elle est protégée sur l'ensemble du territoire français métropolitain.
 </t>
         </is>
       </c>
@@ -513,15 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium chamaemoly, est un ail reconnaissable mais difficile à voir car il effectue son cycle en hiver, il est de petite taille et pousse au ras du sol. Dès le printemps il devient sec et donc invisible.
-Morphologie générale et végétative
-Plante herbacée bulbeuse à tige souterraine formant une rosette de feuilles appliquées au sol. Elle n’excède pas 4 cm de hauteur[4]. Les feuilles sont à longs poils soyeux sur le bord.
-Morphologie florale
-Les fleurs blanches sont hermaphrodites et regroupées en ombelle simple, elles sortent juste au-dessus du sol. La floraison a lieu de décembre à mars[2]. La pollinisation est entomogame.
-Fruit et graines
-Le fruit est une capsule sphérique verdâtre, courte et pédonculée. La dissémination est barochore.
 </t>
         </is>
       </c>
@@ -547,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allium chamaemoly est une plante vivace géophyte qui pousse dans les clairières des garrigues sèches du littoral et des îles. Habitat type : pelouses basophiles mésoméditerranéennes, mésoxérophiles.
-Aire de répartition : méditerranéenne[5]
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée bulbeuse à tige souterraine formant une rosette de feuilles appliquées au sol. Elle n’excède pas 4 cm de hauteur. Les feuilles sont à longs poils soyeux sur le bord.
 </t>
         </is>
       </c>
@@ -579,10 +592,120 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs blanches sont hermaphrodites et regroupées en ombelle simple, elles sortent juste au-dessus du sol. La floraison a lieu de décembre à mars. La pollinisation est entomogame.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Allium_chamaemoly</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allium_chamaemoly</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une capsule sphérique verdâtre, courte et pédonculée. La dissémination est barochore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allium_chamaemoly</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allium_chamaemoly</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium chamaemoly est une plante vivace géophyte qui pousse dans les clairières des garrigues sèches du littoral et des îles. Habitat type : pelouses basophiles mésoméditerranéennes, mésoxérophiles.
+Aire de répartition : méditerranéenne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Allium_chamaemoly</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allium_chamaemoly</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Images</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Allium chamaemoly sur pelouse sablonneuse
